--- a/src/arquivos/teste.xlsx
+++ b/src/arquivos/teste.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evertonpessoa/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evertonpessoa/Desktop/import-xlsx/src/arquivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57D74FE-4A07-E44C-8368-80D09927C0D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EEE240-E134-3445-94BA-00C3F2C8F74B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="960" windowWidth="27840" windowHeight="16600" xr2:uid="{91B470C0-C7C1-4141-9AF4-A236DFF54597}"/>
   </bookViews>
@@ -45,19 +45,19 @@
     <t>email</t>
   </si>
   <si>
-    <t>Everton</t>
-  </si>
-  <si>
-    <t>everton@email.com</t>
-  </si>
-  <si>
     <t>Bruno</t>
   </si>
   <si>
-    <t>bruno@email.com</t>
-  </si>
-  <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>joao</t>
+  </si>
+  <si>
+    <t>joao@email.com</t>
+  </si>
+  <si>
+    <t>maria@email.com</t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -435,7 +435,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -452,13 +452,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
         <v>31793</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -466,13 +466,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
         <v>30367</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
